--- a/Dokumentation/Anforderungsdokumentation.xlsx
+++ b/Dokumentation/Anforderungsdokumentation.xlsx
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,45 +730,46 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,14 +777,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -819,28 +819,24 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -850,10 +846,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -861,13 +857,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20"/>
     </row>
@@ -876,21 +872,27 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -898,12 +900,14 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23"/>
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -911,24 +915,26 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -938,43 +944,43 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -984,7 +990,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,7 +1001,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,27 +1012,24 @@
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:E32">
-    <sortCondition ref="A1:A32"/>
-    <sortCondition ref="B1:B32"/>
+  <sortState ref="A2:E33">
+    <sortCondition ref="A2:A33"/>
+    <sortCondition ref="B2:B33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Dokumentation/Anforderungsdokumentation.xlsx
+++ b/Dokumentation/Anforderungsdokumentation.xlsx
@@ -268,11 +268,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -579,16 +591,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -598,69 +610,69 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -671,21 +683,21 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -696,7 +708,7 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -707,95 +719,95 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -806,36 +818,36 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,82 +857,82 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" s="5"/>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -930,10 +942,10 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25"/>
+      <c r="D25" s="5"/>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +955,7 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -954,18 +966,18 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -976,10 +988,10 @@
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -989,7 +1001,7 @@
       <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1000,7 +1012,7 @@
       <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1011,7 +1023,7 @@
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1022,7 +1034,7 @@
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Dokumentation/Anforderungsdokumentation.xlsx
+++ b/Dokumentation/Anforderungsdokumentation.xlsx
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
